--- a/GAMS/data/markets/Elasticities.xlsx
+++ b/GAMS/data/markets/Elasticities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffbbf984f276bb2d/Documentos/GitHub/sustainmod/GAMS/data/markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{EFE3C6C6-11BB-417E-9091-142B7D59DF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B5FED59-6400-4E64-8F97-F5CCFB5EE0ED}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{EFE3C6C6-11BB-417E-9091-142B7D59DF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B31B3FB-BA6F-4258-8691-9844A7945A16}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="676" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="0" windowWidth="21525" windowHeight="15240" tabRatio="676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="238">
   <si>
     <t>Orange</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,66 +668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arroz</t>
-  </si>
-  <si>
-    <t>Avena</t>
-  </si>
-  <si>
-    <t>Poroto</t>
-  </si>
-  <si>
-    <t>Maiz</t>
-  </si>
-  <si>
-    <t>Papa</t>
-  </si>
-  <si>
-    <t>Remolacha</t>
-  </si>
-  <si>
-    <t>Trigo</t>
-  </si>
-  <si>
-    <t>Cerezo</t>
-  </si>
-  <si>
-    <t>Ciruelo europeo</t>
-  </si>
-  <si>
-    <t>Ciruelo japones</t>
-  </si>
-  <si>
-    <t>Manzano rojo</t>
-  </si>
-  <si>
-    <t>Manzano verde</t>
-  </si>
-  <si>
-    <t>Naranjo</t>
-  </si>
-  <si>
-    <t>Nogal</t>
-  </si>
-  <si>
-    <t>Olivo</t>
-  </si>
-  <si>
-    <t>Palto</t>
-  </si>
-  <si>
-    <t>Peral</t>
-  </si>
-  <si>
-    <t>Pera asiatica</t>
-  </si>
-  <si>
-    <t>Vid de mesa</t>
-  </si>
-  <si>
-    <t>Duraznero consumo fresco</t>
-  </si>
-  <si>
     <t>arroz</t>
   </si>
   <si>
@@ -915,6 +855,9 @@
   </si>
   <si>
     <t>poroto_l</t>
+  </si>
+  <si>
+    <t>selas</t>
   </si>
 </sst>
 </file>
@@ -935,7 +878,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,6 +888,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -972,6 +921,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,6 +940,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1314,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1403,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1426,40 +1380,40 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>174</v>
       </c>
       <c r="B2">
         <v>0.42</v>
       </c>
       <c r="C2">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>175</v>
       </c>
       <c r="B3">
-        <v>1.45</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="C3">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>176</v>
       </c>
-      <c r="B4">
-        <v>1.49</v>
+      <c r="B4" s="6">
+        <v>0.85</v>
       </c>
       <c r="C4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>177</v>
       </c>
       <c r="B5">
@@ -1470,150 +1424,150 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>178</v>
       </c>
       <c r="B6">
-        <v>1.49</v>
+        <v>0.85</v>
       </c>
       <c r="C6">
         <v>-0.3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C7">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>179</v>
       </c>
-      <c r="B7">
-        <v>3.8</v>
-      </c>
-      <c r="C7">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C8">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>180</v>
       </c>
-      <c r="B8">
-        <v>0.85</v>
-      </c>
-      <c r="C8">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>181</v>
       </c>
-      <c r="B9">
-        <v>0.6</v>
-      </c>
-      <c r="C9">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C10">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>182</v>
       </c>
-      <c r="B10">
-        <v>0.6</v>
-      </c>
-      <c r="C10">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C11">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>183</v>
       </c>
-      <c r="B11">
-        <v>0.6</v>
-      </c>
-      <c r="C11">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12">
-        <v>0.6</v>
+      <c r="B12" s="6">
+        <v>0.85</v>
       </c>
       <c r="C12">
-        <v>-0.7</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>184</v>
       </c>
-      <c r="B13">
-        <v>0.6</v>
+      <c r="B13" s="6">
+        <v>0.85</v>
       </c>
       <c r="C13">
-        <v>-0.6</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>185</v>
       </c>
-      <c r="B14">
-        <v>0.6</v>
+      <c r="B14" s="6">
+        <v>0.85</v>
       </c>
       <c r="C14">
-        <v>-0.6</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>186</v>
       </c>
       <c r="B15">
         <v>0.6</v>
       </c>
       <c r="C15">
-        <v>-0.5</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>187</v>
       </c>
       <c r="B16">
         <v>0.6</v>
       </c>
       <c r="C16">
-        <v>-0.8</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>188</v>
       </c>
       <c r="B17">
         <v>0.6</v>
       </c>
       <c r="C17">
-        <v>-0.8</v>
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>189</v>
       </c>
       <c r="B18">
         <v>0.6</v>
       </c>
       <c r="C18">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>190</v>
       </c>
       <c r="B19">
@@ -1624,25 +1578,509 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>191</v>
       </c>
       <c r="B20">
         <v>0.6</v>
       </c>
       <c r="C20">
-        <v>-0.8</v>
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>192</v>
       </c>
       <c r="B21">
         <v>0.6</v>
       </c>
       <c r="C21">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22">
+        <v>0.6</v>
+      </c>
+      <c r="C22">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23">
+        <v>0.6</v>
+      </c>
+      <c r="C23">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24">
+        <v>0.6</v>
+      </c>
+      <c r="C24">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25">
+        <v>0.6</v>
+      </c>
+      <c r="C25">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26">
+        <v>0.6</v>
+      </c>
+      <c r="C26">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27">
+        <v>0.6</v>
+      </c>
+      <c r="C27">
         <v>-0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28">
+        <v>0.6</v>
+      </c>
+      <c r="C28">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>0.6</v>
+      </c>
+      <c r="C29">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30">
+        <v>0.6</v>
+      </c>
+      <c r="C30">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31">
+        <v>0.6</v>
+      </c>
+      <c r="C31">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C32">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C33">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C34">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C35">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C36">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C37">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C38">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C39">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C40">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C41">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C42">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C43">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C44">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C45">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C46">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C47">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C48">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C49">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C50">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51">
+        <v>1.49</v>
+      </c>
+      <c r="C51">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52">
+        <v>1.49</v>
+      </c>
+      <c r="C52">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C53">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C54">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C55">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C56">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C57">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C58">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C59">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C60">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C61">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62">
+        <v>1.49</v>
+      </c>
+      <c r="C62">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63">
+        <v>1.49</v>
+      </c>
+      <c r="C63">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64">
+        <v>1.49</v>
+      </c>
+      <c r="C64">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65">
+        <v>1.49</v>
+      </c>
+      <c r="C65">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1658,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1671,14 +2109,14 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>174</v>
       </c>
       <c r="B2">
@@ -1686,7 +2124,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>175</v>
       </c>
       <c r="B3">
@@ -1694,15 +2132,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B4">
-        <v>1.49</v>
+      <c r="B4" s="6">
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>177</v>
       </c>
       <c r="B5">
@@ -1710,81 +2148,81 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>178</v>
       </c>
       <c r="B6">
-        <v>1.49</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B7">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>180</v>
       </c>
-      <c r="B8">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>1.4750000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B11">
-        <v>0.6</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12">
-        <v>0.6</v>
+      <c r="B12" s="6">
+        <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B13">
-        <v>0.6</v>
+      <c r="B13" s="6">
+        <v>0.85</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B14">
-        <v>0.6</v>
+      <c r="B14" s="6">
+        <v>0.85</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>186</v>
       </c>
       <c r="B15">
@@ -1792,7 +2230,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>187</v>
       </c>
       <c r="B16">
@@ -1800,7 +2238,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>188</v>
       </c>
       <c r="B17">
@@ -1808,7 +2246,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>189</v>
       </c>
       <c r="B18">
@@ -1816,7 +2254,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>190</v>
       </c>
       <c r="B19">
@@ -1824,7 +2262,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>191</v>
       </c>
       <c r="B20">
@@ -1832,7 +2270,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>192</v>
       </c>
       <c r="B21">
@@ -1840,13 +2278,356 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65">
+        <v>1.49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1863,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1882,7 +2663,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>-0.4</v>
@@ -1890,7 +2671,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B3">
         <v>-1</v>
@@ -1898,7 +2679,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -1906,7 +2687,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B5">
         <v>-0.4</v>
@@ -1914,7 +2695,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B6">
         <v>-0.3</v>
@@ -1924,15 +2705,21 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="B8">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>-1</v>
@@ -1940,48 +2727,72 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>181</v>
+      </c>
+      <c r="B10">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>182</v>
+      </c>
+      <c r="B11">
+        <v>-0.52</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>183</v>
+      </c>
+      <c r="B12">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>184</v>
+      </c>
+      <c r="B13">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>185</v>
+      </c>
+      <c r="B14">
+        <v>-1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>186</v>
+      </c>
+      <c r="B15">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>187</v>
+      </c>
+      <c r="B16">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>188</v>
+      </c>
+      <c r="B17">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B18">
         <v>-0.6</v>
@@ -1989,7 +2800,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B19">
         <v>-0.8</v>
@@ -1997,12 +2808,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>191</v>
+      </c>
+      <c r="B20">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B21">
         <v>-0.7</v>
@@ -2010,22 +2824,31 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>193</v>
+      </c>
+      <c r="B22">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>194</v>
+      </c>
+      <c r="B23">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>195</v>
+      </c>
+      <c r="B24">
+        <v>-5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B25">
         <v>-0.6</v>
@@ -2033,7 +2856,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B26">
         <v>-0.5</v>
@@ -2041,7 +2864,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B27">
         <v>-0.8</v>
@@ -2049,7 +2872,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B28">
         <v>-0.8</v>
@@ -2057,7 +2880,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B29">
         <v>-0.8</v>
@@ -2065,7 +2888,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B30">
         <v>-0.8</v>
@@ -2073,7 +2896,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B31">
         <v>-0.8</v>
@@ -2081,105 +2904,159 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>203</v>
+      </c>
+      <c r="B32">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>204</v>
+      </c>
+      <c r="B33">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>205</v>
+      </c>
+      <c r="B34">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>226</v>
+        <v>206</v>
+      </c>
+      <c r="B35">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>207</v>
+      </c>
+      <c r="B36">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>228</v>
+        <v>208</v>
+      </c>
+      <c r="B37">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>209</v>
+      </c>
+      <c r="B38">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>210</v>
+      </c>
+      <c r="B39">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>211</v>
+      </c>
+      <c r="B40">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B41">
-        <v>-0.4</v>
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>233</v>
+        <v>213</v>
+      </c>
+      <c r="B42">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>214</v>
+      </c>
+      <c r="B43">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>215</v>
+      </c>
+      <c r="B44">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>236</v>
+        <v>216</v>
+      </c>
+      <c r="B45">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>237</v>
+        <v>217</v>
+      </c>
+      <c r="B46">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>238</v>
+        <v>218</v>
+      </c>
+      <c r="B47">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>239</v>
+        <v>219</v>
+      </c>
+      <c r="B48">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>220</v>
+      </c>
+      <c r="B49">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>221</v>
+      </c>
+      <c r="B50">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B51">
         <v>-0.5</v>
@@ -2187,7 +3064,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B52">
         <v>-0.5</v>
@@ -2195,37 +3072,55 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>224</v>
+      </c>
+      <c r="B53">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>245</v>
+        <v>225</v>
+      </c>
+      <c r="B54">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>226</v>
+      </c>
+      <c r="B55">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>247</v>
+        <v>227</v>
+      </c>
+      <c r="B56">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>248</v>
+        <v>228</v>
+      </c>
+      <c r="B57">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>229</v>
+      </c>
+      <c r="B58">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B59">
         <v>-0.5</v>
@@ -2233,27 +3128,39 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>251</v>
+        <v>231</v>
+      </c>
+      <c r="B60">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>252</v>
+        <v>232</v>
+      </c>
+      <c r="B61">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>253</v>
+        <v>233</v>
+      </c>
+      <c r="B62">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>254</v>
+        <v>234</v>
+      </c>
+      <c r="B63">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B64">
         <v>-0.3</v>
@@ -2261,7 +3168,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B65">
         <v>-0.5</v>
@@ -2907,20 +3814,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
